--- a/medicine/Psychotrope/Juan_Nepomuceno_Guerra/Juan_Nepomuceno_Guerra.xlsx
+++ b/medicine/Psychotrope/Juan_Nepomuceno_Guerra/Juan_Nepomuceno_Guerra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juan Nepomuceno Guerra Cárdenas (18 juillet 1915 - 12 juillet 2001) était un seigneur du crime, contrebandier, homme d'affaires et baron de la drogue mexicain qui a fondé le Cartel du Golfe, une organisation de trafic de drogue. Il est souvent considéré comme le « parrain » des cartels de la frontière américano-mexicaine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juan Nepomuceno Guerra Cárdenas (18 juillet 1915 - 12 juillet 2001) était un seigneur du crime, contrebandier, homme d'affaires et baron de la drogue mexicain qui a fondé le Cartel du Golfe, une organisation de trafic de drogue. Il est souvent considéré comme le « parrain » des cartels de la frontière américano-mexicaine.
 Il commence sa carrière criminelle dans les années 1930 par la contrebande d'alcool au Mexique pendant la prohibition aux États-Unis. Il se diversifie par la suite avec d'autres activités de contrebande transfrontalière. Il est l'oncle de Juan García Ábrego et fut un temps l'homme le plus recherché du Mexique.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Jeunesse et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours des années 1930, il commence la contrebande de whisky à travers la frontière entre le Mexique et les États-Unis dans le sud du Texas. Grâce à des relations politiques astucieuses qu'il avait favorisées, Nepomuceno Guerra a pu contrôler toute la contrebande se déplaçant à travers le Rio Grande[2].
-Dans les années 1970, son neveu Juan García Abrego a commencé à utiliser ses connexions et à mettre au point l'organisation d'un cartel de drogue principalement dédiée à l'activité la plus lucrative, la contrebande de cocaïne[3].
-Selon certaines sources, Juan Nepomuceno Guerra n'aurait jamais passé plus de « quelques heures en prison » pour ses crimes[4].
-Il meurt d'une maladie respiratoire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours des années 1930, il commence la contrebande de whisky à travers la frontière entre le Mexique et les États-Unis dans le sud du Texas. Grâce à des relations politiques astucieuses qu'il avait favorisées, Nepomuceno Guerra a pu contrôler toute la contrebande se déplaçant à travers le Rio Grande.
+Dans les années 1970, son neveu Juan García Abrego a commencé à utiliser ses connexions et à mettre au point l'organisation d'un cartel de drogue principalement dédiée à l'activité la plus lucrative, la contrebande de cocaïne.
+Selon certaines sources, Juan Nepomuceno Guerra n'aurait jamais passé plus de « quelques heures en prison » pour ses crimes.
+Il meurt d'une maladie respiratoire.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Succession</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 18 juin 2015, le gouverneur de Tamaulipas, Egidio Torre Cantú, a inauguré une rue « Juan N. Guerra », à Reynosa, Tamaulipas. La rue se trouve dans le quartier de la classe ouvrière Reserva Campestre territoriale[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 18 juin 2015, le gouverneur de Tamaulipas, Egidio Torre Cantú, a inauguré une rue « Juan N. Guerra », à Reynosa, Tamaulipas. La rue se trouve dans le quartier de la classe ouvrière Reserva Campestre territoriale.
 </t>
         </is>
       </c>
